--- a/medicine/Sexualité et sexologie/Madeline_Blair/Madeline_Blair.xlsx
+++ b/medicine/Sexualité et sexologie/Madeline_Blair/Madeline_Blair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Madeline Blair, née en 1905, est une prostituée américaine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madeline Blair, née en 1905, est une prostituée américaine.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Affaire Madeline Blair</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En mars 1924, des marins de la 4e flotte l’U.S. Navy en escale à New York rencontrèrent une prostituée âgée de 19 ans, une brunette aux yeux noirs nommée Madeline Blair, qui répondait au surnom de « Blackie ». Elle disait vouloir se rendre à Hollywood pour devenir star, mais n’avoir pas assez d’argent. Après lui avoir fait couper ses cheveux et fourni l’uniforme approprié, les marins en groupe et feignant l’ébriété l’introduisirent clandestinement à bord de l'USS Arizona, dont la destination finale était la Californie. On lui trouva une place dans le compartiment des générateurs, les cuisiniers acceptèrent de lui fournir ses repas pour 10 $ par jour (la solde d’un marin était d’environ 21 $ par mois), mais à 3 dollars la passe, elle fit des affaires.
 Un soir, alors qu’en jeans et chemise de travail, elle assistait effrontément à un film sur le pont, un marin qui ne la connaissait pas et n’ayant pas de feu pour sa cigarette a tendu la main vers sa poche de poitrine (tous les marins mettaient là leurs allumettes), et il rencontra un sein. Il n’éventa pas le secret.
@@ -548,7 +562,9 @@
           <t>Citations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Pourquoi, depuis que l'homme et la femme ont été créés l'un pour l'autre, Dieu a-t-il fait leurs désirs si dissemblables ? Pourquoi une catégorie de femmes devrait-elle pouvoir demeurer à l’abri luxueux des épreuves de la vie, alors qu'une autre classe exécuterait leurs tâches dégoûtantes ? Certainement, sa sagesse n'a pas décrété que des femmes devaient vivre dans la déchéance et à la fin périr pendant que d'autres pourraient vivre dans la sécurité, préserver leur chasteté glacée, et à la fin être sauvées[trad 1]. »
